--- a/市場_2025改修/ソース/seikyu_sisetu_yyyy.xlsx
+++ b/市場_2025改修/ソース/seikyu_sisetu_yyyy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\99_ETC\01_サントク\03_姫路市市場\20_ソース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBE2A3B-9ADE-4F1B-97D4-1E93942B2EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99F7ED8-B9F2-457B-BDB3-B6713342607E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{BB44E4CA-8F2B-4C02-A85F-803A2FE57EBE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="202212" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -796,10 +796,14 @@
   <dimension ref="A1:W158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">

--- a/市場_2025改修/ソース/seikyu_sisetu_yyyy.xlsx
+++ b/市場_2025改修/ソース/seikyu_sisetu_yyyy.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99F7ED8-B9F2-457B-BDB3-B6713342607E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE48C1A-F383-434B-AFB6-A2D2F84B3F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{BB44E4CA-8F2B-4C02-A85F-803A2FE57EBE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="202212" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="115">
   <si>
     <t>納付書番号</t>
   </si>
@@ -375,7 +375,28 @@
     <t>姫路市中央卸売市場運営協議会</t>
   </si>
   <si>
-    <t>日割り</t>
+    <t>調定金額</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナス</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -780,6 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B567C16E-80C6-4286-AD84-048C449C60A7}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -793,10 +815,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46187373-37C8-4AA5-9BDA-20A6510B1EC2}">
-  <dimension ref="A1:W158"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:Y158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -805,7 +828,7 @@
     <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,8 +898,14 @@
       <c r="W1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -917,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -946,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -975,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1004,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1033,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1062,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1091,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1120,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1161,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1190,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1219,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1248,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1277,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1306,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
